--- a/TextAnalysis/Word Frequencies/graphs/general/proportions_corpora.xlsx
+++ b/TextAnalysis/Word Frequencies/graphs/general/proportions_corpora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\le_rap_francophone\TextAnalysis\Word Frequencies\graphs\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69BCE7F-1BB8-4B47-ADC8-74F42A71E84E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E9A29-748E-4469-BEFB-00D5A16F1737}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B511E712-2302-4240-8BB0-C6D01E93715B}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>Main Corpus</t>
   </si>
   <si>
-    <t>Media words subcorpus - no ambiguous words</t>
+    <t>Media words subcorpus - lower ambiguity</t>
   </si>
   <si>
-    <t>Media words subcorpus - with ambiguous words</t>
+    <t>Media words subcorpus - higher ambiguity</t>
   </si>
 </sst>
 </file>
@@ -136,6 +136,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2B22-4A2F-9529-612C7EA1A77E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -151,6 +156,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2B22-4A2F-9529-612C7EA1A77E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -217,7 +227,7 @@
                   <c:v>Main Corpus</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Media words subcorpus - with ambiguous words</c:v>
+                  <c:v>Media words subcorpus - higher ambiguity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -374,6 +384,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3FBA-49BA-B1FE-92B3E2991374}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -389,6 +404,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3FBA-49BA-B1FE-92B3E2991374}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -455,7 +475,7 @@
                   <c:v>Main Corpus</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Media words subcorpus - no ambiguous words</c:v>
+                  <c:v>Media words subcorpus - lower ambiguity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2070,7 +2090,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2080,7 +2100,7 @@
     <col min="3" max="3" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
